--- a/NFL.xlsx
+++ b/NFL.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvray\OneDrive\Documents\Web Development\NBA TEAMS\nba_socmed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCF851D-CBA6-46ED-9425-E9DD094F1331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3086A0-C062-4ED6-8BC5-84A39EDD2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC54D405-E3CA-41C1-8652-E1026BC64278}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NFL" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="235">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>YouTube (subscribers)</t>
   </si>
@@ -74,97 +61,670 @@
     <t>Arizona Cardinals</t>
   </si>
   <si>
+    <t>78500</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/azcardinals</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/arizonacardinals</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@azcardinals</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Cardschatter</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzNfiKcvNjLHljohEkO83Rg</t>
+  </si>
+  <si>
     <t>Atlanta Falcons</t>
   </si>
   <si>
+    <t>153000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/atlantafalcons</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/atlantafalcons</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@atlantafalcons</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AtlantaFalcons</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzjCfV3LHyarKbdb-2ScGZg</t>
+  </si>
+  <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ravens</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/baltimoreravens</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ravens</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ravens</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCbpj2JAUMb8G_oQQFPeGrhg</t>
+  </si>
+  <si>
     <t>Buffalo Bills</t>
   </si>
   <si>
+    <t>144000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/buffalobills</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BuffaloBills</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@buffalobills</t>
+  </si>
+  <si>
+    <t>https://twitter.com/buffalobills</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCcEvCxUe2Sm5W6MliEUv0vg</t>
+  </si>
+  <si>
     <t>Carolina Panthers</t>
   </si>
   <si>
+    <t>128000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/panthers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CarolinaPanthers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@panthers</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/panthers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC6vl4XAyO5mZLczhFC8MgpA</t>
+  </si>
+  <si>
     <t>Chicago Bears</t>
   </si>
   <si>
+    <t>187000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chicagobears</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ChicagoBears</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@chicagobears</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ChicagoBears</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCP0Cdc6moLMyDJiO0s-yhbQ</t>
+  </si>
+  <si>
     <t>Cincinnati Bengals</t>
   </si>
   <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>http://instagram.com/bengals</t>
+  </si>
+  <si>
+    <t>http://facebook.com/bengals</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bengals</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Bengals</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCnQUpSnJ39KsjZKbT0CprHQ</t>
+  </si>
+  <si>
     <t>Cleveland Browns</t>
   </si>
   <si>
+    <t>275000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/clevelandbrowns</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/clevelandbrowns</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@browns</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Browns</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCQQQO7Kdo0cu9iEb19qOoYA</t>
+  </si>
+  <si>
     <t>Dallas Cowboys</t>
   </si>
   <si>
+    <t>391000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/DallasCowboys</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DallasCowboys</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dallascowboys</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DallasCowboys</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCC0BPKJxAyxjQoRTYbpW0FQ</t>
+  </si>
+  <si>
     <t>Denver Broncos</t>
   </si>
   <si>
+    <t>142000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/broncos</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Broncos</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@broncos</t>
+  </si>
+  <si>
+    <t>https://twitter.com/broncos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCDGdBexlDZA8T7hnweWWyow</t>
+  </si>
+  <si>
     <t>Detroit Lions</t>
   </si>
   <si>
+    <t>175000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/detroitlionsnfl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DetroitLions</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@detroitlions</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Lions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCv5J06V-ESk5_1uriG65f3w</t>
+  </si>
+  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
+    <t>146000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/packers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/packers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@packers</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/packers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJtI-l6La0zniodFtSHYrBg</t>
+  </si>
+  <si>
     <t>Houston Texans</t>
   </si>
   <si>
+    <t>84900</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/HoustonTexans</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/HoustonTexans</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@houstontexans</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/HoustonTexans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCa_FcpOBe8G6VAR18RYS-aA</t>
+  </si>
+  <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
+    <t>74900</t>
+  </si>
+  <si>
+    <t>http://www.instagram.com/colts</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/colts</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@colts</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/colts</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCyYn26HPC4HIedifGnNbjBw</t>
+  </si>
+  <si>
     <t>Jacksonville Jaguars</t>
   </si>
   <si>
+    <t>89300</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jaguars</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jacksonvillejaguars</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jaguars</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Jaguars</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCsGacW6z0GedR-Wv45SBRZg</t>
+  </si>
+  <si>
     <t>Kansas City Chiefs</t>
   </si>
   <si>
+    <t>585000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/Chiefs</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KansasCityChiefs</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@chiefs</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/Chiefs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC-hXefb6XBFSubWz6Ezf_lA</t>
+  </si>
+  <si>
     <t>Las Vegas Raiders</t>
   </si>
   <si>
+    <t>270000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/raiders</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/raiders</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@raiders</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/raiders</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC1es5fp8FEK1L0EgHjCvmtQ</t>
+  </si>
+  <si>
     <t>Los Angeles Chargers</t>
   </si>
   <si>
+    <t>307000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chargers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chargers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@chargers</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Chargers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCUyz_gEY_N-KBU4zjt2s-uQ</t>
+  </si>
+  <si>
     <t>Los Angeles Rams</t>
   </si>
   <si>
+    <t>130000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rams/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Rams</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rams</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ramsnfl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCyJ6yZdVUkBvt2vl4R03jcA</t>
+  </si>
+  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
+    <t>143000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/miamidolphins</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MiamiDolphins</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@miamidolphins</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MiamiDolphins</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCHUSfEzpSRkUUsRkk_aJwDw</t>
+  </si>
+  <si>
     <t>Minnesota Vikings</t>
   </si>
   <si>
+    <t>274000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vikings</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/minnesotavikings</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@vikings</t>
+  </si>
+  <si>
+    <t>https://twitter.com/vikings</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCcsw_KrB_wg5lQ5nXWR_LFA</t>
+  </si>
+  <si>
     <t>New England Patriots</t>
   </si>
   <si>
+    <t>242000</t>
+  </si>
+  <si>
+    <t>http://www.instagram.com/patriots</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/newenglandpatriots</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@patriots</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/patriots</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMm_V8YjmnZRhToXIqDYDuw</t>
+  </si>
+  <si>
     <t>New Orleans Saints</t>
   </si>
   <si>
+    <t>125000</t>
+  </si>
+  <si>
+    <t>http://instagram.com/saints</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/neworleanssaints</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@saints</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Saints</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCwuddf1JrodMlc5fYpVlrQA</t>
+  </si>
+  <si>
     <t>New York Giants</t>
   </si>
   <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>http://www.instagram.com/nygiants</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/newyorkgiants</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@nygiants</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/giants</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCk2FqoG8dN5EAz5WU3A0D7A</t>
+  </si>
+  <si>
     <t>New York Jets</t>
   </si>
   <si>
+    <t>https://www.instagram.com/nyjets</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Jets</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@nyjets</t>
+  </si>
+  <si>
+    <t>https://twitter.com/nyjets</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCROj9vBjc4ZW3AL4cd_BjHg</t>
+  </si>
+  <si>
     <t>Philadelphia Eagles</t>
   </si>
   <si>
+    <t>520000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/philadelphiaeagles</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PhiladelphiaEagles</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@philadelphiaeagles</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Eagles</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCaogx6OHpsGg0zuGRKsjbtQ</t>
+  </si>
+  <si>
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/steelers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/steelers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@steelers</t>
+  </si>
+  <si>
+    <t>https://twitter.com/steelers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UChaRXjMDs4ppKfnTPE6Z89w</t>
+  </si>
+  <si>
     <t>San Francisco 49ers</t>
   </si>
   <si>
+    <t>358000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/49ers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SANFRANCISCO49ERS</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@49ers</t>
+  </si>
+  <si>
+    <t>https://twitter.com/49ers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCeIOarQkwmGhimim9cDUTng</t>
+  </si>
+  <si>
     <t>Seattle Seahawks</t>
   </si>
   <si>
+    <t>251000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/seahawks</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Seahawks</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@seahawks</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Seahawks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzkFCRiMcOBeef8xcaqipmw</t>
+  </si>
+  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
+    <t>208000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/buccaneers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tampabaybuccaneers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bucsnfl</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Buccaneers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC0Wwu7r1ybaaR09ANhudTzA</t>
+  </si>
+  <si>
     <t>Tennessee Titans</t>
   </si>
   <si>
+    <t>63800</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/titans</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/titans</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@titans</t>
+  </si>
+  <si>
+    <t>https://twitter.com/titans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCHBsqVkFraWvtNd1w0Qx4_g</t>
+  </si>
+  <si>
     <t>Washington Commanders</t>
+  </si>
+  <si>
+    <t>258000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/commanders</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CommandersNFL</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@commanders</t>
+  </si>
+  <si>
+    <t>https://twitter.com/commanders</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC2a0ENbCZqIO5C1fWXGXZXA</t>
   </si>
 </sst>
 </file>
@@ -231,7 +791,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -254,44 +814,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -318,32 +878,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -370,24 +912,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,355 +923,1338 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED142F6-6543-473F-A98D-95E070B9C7DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1158149</v>
+      </c>
+      <c r="D2">
+        <v>1300000</v>
+      </c>
+      <c r="E2">
+        <v>910200</v>
+      </c>
+      <c r="F2">
+        <v>150104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1363983</v>
+      </c>
+      <c r="D3">
+        <v>1900000</v>
+      </c>
+      <c r="E3">
+        <v>1100000</v>
+      </c>
+      <c r="F3">
+        <v>2448076</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>2115212</v>
+      </c>
+      <c r="D4">
+        <v>2300000</v>
+      </c>
+      <c r="E4">
+        <v>1700000</v>
+      </c>
+      <c r="F4">
+        <v>1918879</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>1754656</v>
+      </c>
+      <c r="D5">
+        <v>1200000</v>
+      </c>
+      <c r="E5">
+        <v>2100000</v>
+      </c>
+      <c r="F5">
+        <v>1784346</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>1933147</v>
+      </c>
+      <c r="D6">
+        <v>2100000</v>
+      </c>
+      <c r="E6">
+        <v>1100000</v>
+      </c>
+      <c r="F6">
+        <v>3078091</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>1616274</v>
+      </c>
+      <c r="D7">
+        <v>3600000</v>
+      </c>
+      <c r="E7">
+        <v>1100000</v>
+      </c>
+      <c r="F7">
+        <v>2077300</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>1659137</v>
+      </c>
+      <c r="D8">
+        <v>1300000</v>
+      </c>
+      <c r="E8">
+        <v>2100000</v>
+      </c>
+      <c r="F8">
+        <v>1588720</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>1496564</v>
+      </c>
+      <c r="D9">
+        <v>1400000</v>
+      </c>
+      <c r="E9">
+        <v>1100000</v>
+      </c>
+      <c r="F9">
+        <v>1634699</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>4860742</v>
+      </c>
+      <c r="D10">
+        <v>8100000</v>
+      </c>
+      <c r="E10">
+        <v>2300000</v>
+      </c>
+      <c r="F10">
+        <v>4414480</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>1446407</v>
+      </c>
+      <c r="D11">
+        <v>3700000</v>
+      </c>
+      <c r="E11">
+        <v>957600</v>
+      </c>
+      <c r="F11">
+        <v>2791983</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>1333111</v>
+      </c>
+      <c r="D12">
+        <v>1900000</v>
+      </c>
+      <c r="E12">
+        <v>2300000</v>
+      </c>
+      <c r="F12">
+        <v>1664739</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>2740291</v>
+      </c>
+      <c r="D13">
+        <v>4900000</v>
+      </c>
+      <c r="E13">
+        <v>964700</v>
+      </c>
+      <c r="F13">
+        <v>2618183</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>1649411</v>
+      </c>
+      <c r="D14">
+        <v>2000000</v>
+      </c>
+      <c r="E14">
+        <v>504100</v>
+      </c>
+      <c r="F14">
+        <v>1997009</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>977680</v>
+      </c>
+      <c r="D15">
+        <v>1900000</v>
+      </c>
+      <c r="E15">
+        <v>1100000</v>
+      </c>
+      <c r="F15">
+        <v>1246989</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16">
+        <v>873707</v>
+      </c>
+      <c r="D16">
+        <v>676000</v>
+      </c>
+      <c r="E16">
+        <v>524000</v>
+      </c>
+      <c r="F16">
+        <v>863398</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>4245534</v>
+      </c>
+      <c r="D17">
+        <v>2700000</v>
+      </c>
+      <c r="E17">
+        <v>4500000</v>
+      </c>
+      <c r="F17">
+        <v>2549688</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18">
+        <v>2358367</v>
+      </c>
+      <c r="D18">
+        <v>3200000</v>
+      </c>
+      <c r="E18">
+        <v>634200</v>
+      </c>
+      <c r="F18">
+        <v>1943999</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19">
+        <v>1112985</v>
+      </c>
+      <c r="D19">
+        <v>1400000</v>
+      </c>
+      <c r="E19">
+        <v>1300000</v>
+      </c>
+      <c r="F19">
+        <v>1121139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20">
+        <v>1727536</v>
+      </c>
+      <c r="D20">
+        <v>995000</v>
+      </c>
+      <c r="E20">
+        <v>1600000</v>
+      </c>
+      <c r="F20">
+        <v>1251221</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21">
+        <v>1877218</v>
+      </c>
+      <c r="D21">
+        <v>2100000</v>
+      </c>
+      <c r="E21">
+        <v>1500000</v>
+      </c>
+      <c r="F21">
+        <v>1292544</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22">
+        <v>1417275</v>
+      </c>
+      <c r="D22">
+        <v>2000000</v>
+      </c>
+      <c r="E22">
+        <v>1200000</v>
+      </c>
+      <c r="F22">
+        <v>1569438</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>5036205</v>
+      </c>
+      <c r="D23">
+        <v>6400000</v>
+      </c>
+      <c r="E23">
+        <v>1300000</v>
+      </c>
+      <c r="F23">
+        <v>4677185</v>
+      </c>
+      <c r="H23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24">
+        <v>2053665</v>
+      </c>
+      <c r="D24">
+        <v>3700000</v>
+      </c>
+      <c r="E24">
+        <v>1100000</v>
+      </c>
+      <c r="F24">
+        <v>1765701</v>
+      </c>
+      <c r="H24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>2761391</v>
+      </c>
+      <c r="D25">
+        <v>3500000</v>
+      </c>
+      <c r="E25">
+        <v>1300000</v>
+      </c>
+      <c r="F25">
+        <v>2004077</v>
+      </c>
+      <c r="H25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>1155510</v>
+      </c>
+      <c r="D26">
+        <v>1700000</v>
+      </c>
+      <c r="E26">
+        <v>913500</v>
+      </c>
+      <c r="F26">
+        <v>1383738</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27">
+        <v>3528862</v>
+      </c>
+      <c r="D27">
+        <v>3700000</v>
+      </c>
+      <c r="E27">
+        <v>3000000</v>
+      </c>
+      <c r="F27">
+        <v>3862636</v>
+      </c>
+      <c r="H27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28">
+        <v>3649406</v>
+      </c>
+      <c r="D28">
+        <v>5900000</v>
+      </c>
+      <c r="E28">
+        <v>2000000</v>
+      </c>
+      <c r="F28">
+        <v>3759912</v>
+      </c>
+      <c r="H28" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29">
+        <v>3827848</v>
+      </c>
+      <c r="D29">
+        <v>4000000</v>
+      </c>
+      <c r="E29">
+        <v>2000000</v>
+      </c>
+      <c r="F29">
+        <v>2472660</v>
+      </c>
+      <c r="H29" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30">
+        <v>3327467</v>
+      </c>
+      <c r="D30">
+        <v>3500000</v>
+      </c>
+      <c r="E30">
+        <v>1200000</v>
+      </c>
+      <c r="F30">
+        <v>2568073</v>
+      </c>
+      <c r="H30" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31">
+        <v>1476402</v>
+      </c>
+      <c r="D31">
+        <v>1200000</v>
+      </c>
+      <c r="E31">
+        <v>1300000</v>
+      </c>
+      <c r="F31">
+        <v>1313938</v>
+      </c>
+      <c r="H31" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32">
+        <v>937100</v>
+      </c>
+      <c r="D32">
+        <v>1000000</v>
+      </c>
+      <c r="E32">
+        <v>1200000</v>
+      </c>
+      <c r="F32">
+        <v>1064139</v>
+      </c>
+      <c r="H32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>228</v>
+      </c>
+      <c r="B33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33">
+        <v>1104237</v>
+      </c>
+      <c r="D33">
+        <v>1700000</v>
+      </c>
+      <c r="E33">
+        <v>815600</v>
+      </c>
+      <c r="F33">
+        <v>1421533</v>
+      </c>
+      <c r="H33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>